--- a/12-21-25 to 12-27-25 Milwaukee Schedule.xlsx
+++ b/12-21-25 to 12-27-25 Milwaukee Schedule.xlsx
@@ -1509,7 +1509,11 @@
           <t>Paul</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>

--- a/12-21-25 to 12-27-25 Milwaukee Schedule.xlsx
+++ b/12-21-25 to 12-27-25 Milwaukee Schedule.xlsx
@@ -536,8 +536,16 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -552,8 +560,16 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -563,8 +579,16 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -579,8 +603,16 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 2</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>

--- a/12-21-25 to 12-27-25 Milwaukee Schedule.xlsx
+++ b/12-21-25 to 12-27-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y79"/>
+  <dimension ref="A1:Y78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="W69" t="inlineStr"/>
@@ -2980,10 +2980,15 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Celina</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr"/>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe</t>
+        </is>
+      </c>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
@@ -3015,13 +3020,13 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W71" t="inlineStr">
         <is>
           <t>Driver,
-Santa Fe</t>
+Red Van</t>
         </is>
       </c>
       <c r="X71" t="inlineStr"/>
@@ -3055,15 +3060,10 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
     </row>
@@ -3095,7 +3095,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="W73" t="inlineStr"/>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W74" t="inlineStr"/>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="W75" t="inlineStr"/>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="W76" t="inlineStr"/>
@@ -3235,10 +3235,14 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="W77" t="inlineStr"/>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
     </row>
@@ -3270,7 +3274,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
@@ -3280,45 +3284,6 @@
       </c>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr"/>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W79" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/12-21-25 to 12-27-25 Milwaukee Schedule.xlsx
+++ b/12-21-25 to 12-27-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y78"/>
+  <dimension ref="A1:Y95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2945,10 +2945,15 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Celina</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr"/>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe</t>
+        </is>
+      </c>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
     </row>
@@ -2980,15 +2985,10 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W70" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
     </row>
@@ -3020,15 +3020,10 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
     </row>
@@ -3060,7 +3055,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="W72" t="inlineStr"/>
@@ -3095,10 +3090,14 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Mariah</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
     </row>
@@ -3130,10 +3129,14 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W74" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
     </row>
@@ -3165,10 +3168,14 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr"/>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
     </row>
@@ -3200,10 +3207,14 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="W76" t="inlineStr"/>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
     </row>
@@ -3235,7 +3246,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
@@ -3274,7 +3285,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
@@ -3284,6 +3295,566 @@
       </c>
       <c r="X78" t="inlineStr"/>
       <c r="Y78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr"/>
+      <c r="B79" t="inlineStr"/>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr"/>
+      <c r="B82" t="inlineStr"/>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>4:45 AM OFFICE MEET</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr"/>
+      <c r="B83" t="inlineStr"/>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr"/>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr"/>
+      <c r="B85" t="inlineStr"/>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>CAPITOL CENTRE MARKET, MADISON</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr"/>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>111 N BROOM ST</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr"/>
+      <c r="B87" t="inlineStr"/>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/dNaovNNmnMG2</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr"/>
+      <c r="B88" t="inlineStr"/>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>SETUP IN UPSTAIRS BACKROOM BY BREAKROOM</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr"/>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr"/>
+      <c r="B90" t="inlineStr"/>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr"/>
+      <c r="B91" t="inlineStr"/>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr"/>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr"/>
+      <c r="B93" t="inlineStr"/>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>Mariah</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr"/>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr"/>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/12-21-25 to 12-27-25 Milwaukee Schedule.xlsx
+++ b/12-21-25 to 12-27-25 Milwaukee Schedule.xlsx
@@ -2653,7 +2653,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2763,8 +2763,16 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>

--- a/12-21-25 to 12-27-25 Milwaukee Schedule.xlsx
+++ b/12-21-25 to 12-27-25 Milwaukee Schedule.xlsx
@@ -2578,10 +2578,15 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2613,15 +2618,10 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -2763,16 +2763,8 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>

--- a/12-21-25 to 12-27-25 Milwaukee Schedule.xlsx
+++ b/12-21-25 to 12-27-25 Milwaukee Schedule.xlsx
@@ -981,7 +981,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>Optima available, NEED 2 COMPUTERS</t>
+          <t>Optima available, Only 1 PC needed</t>
         </is>
       </c>
       <c r="X15" t="inlineStr"/>

--- a/12-21-25 to 12-27-25 Milwaukee Schedule.xlsx
+++ b/12-21-25 to 12-27-25 Milwaukee Schedule.xlsx
@@ -1491,10 +1491,14 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -1536,16 +1540,8 @@
           <t>4)</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>

--- a/12-21-25 to 12-27-25 Milwaukee Schedule.xlsx
+++ b/12-21-25 to 12-27-25 Milwaukee Schedule.xlsx
@@ -2981,7 +2981,7 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W70" t="inlineStr"/>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Trevor</t>
         </is>
       </c>
       <c r="W71" t="inlineStr"/>
@@ -3051,10 +3051,14 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
     </row>
@@ -3086,7 +3090,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
@@ -3125,7 +3129,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W74" t="inlineStr">
@@ -3164,7 +3168,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W75" t="inlineStr">
@@ -3203,7 +3207,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
@@ -3242,7 +3246,7 @@
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W77" t="inlineStr">
@@ -3281,7 +3285,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W78" t="inlineStr">
@@ -3313,21 +3317,9 @@
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W79" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr"/>
       <c r="Y79" t="inlineStr"/>
     </row>
